--- a/Configuration/test_plan/TEST_PLAN_2.xlsx
+++ b/Configuration/test_plan/TEST_PLAN_2.xlsx
@@ -1,144 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panba\Desktop\work\work_projects\automation_latest\Configuration\test_plan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8034F9AF-709E-472C-A309-C403D5C0F265}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12648" windowWidth="22260" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="config" sheetId="1" r:id="rId1"/>
-    <sheet name="uut" sheetId="2" r:id="rId2"/>
-    <sheet name="scripts" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="config" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="uut" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="scripts" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
-  <si>
-    <t>ITEM</t>
-  </si>
-  <si>
-    <t>VALUE</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>task_2</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>jie.liu1@hp.com;carl.chen@hp.com</t>
-  </si>
-  <si>
-    <t>needbuild</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>repository</t>
-  </si>
-  <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>MAC</t>
-  </si>
-  <si>
-    <t>OS</t>
-  </si>
-  <si>
-    <t>15.83.250.1</t>
-  </si>
-  <si>
-    <t>13354k31sa</t>
-  </si>
-  <si>
-    <t>WES7P</t>
-  </si>
-  <si>
-    <t>15.83.250.2</t>
-  </si>
-  <si>
-    <t>13354k31sb</t>
-  </si>
-  <si>
-    <t>SCRIPT</t>
-  </si>
-  <si>
-    <t>RUN</t>
-  </si>
-  <si>
-    <t>SUITE</t>
-  </si>
-  <si>
-    <t>script1</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Doraemon</t>
-  </si>
-  <si>
-    <t>script2</t>
-  </si>
-  <si>
-    <t>script4</t>
-  </si>
-  <si>
-    <t>script3</t>
-  </si>
-  <si>
-    <t>WES_Precheck</t>
-  </si>
-  <si>
-    <t>script5</t>
-  </si>
-  <si>
-    <t>script6</t>
-  </si>
-  <si>
-    <t>https://github.azc.ext.hp.com/HPI-ThinClientQA/bamboo_test1.git</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -154,94 +54,86 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
+      <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
+    <xf applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <protection locked="0" hidden="0"/>
+      <protection hidden="0" locked="0"/>
     </dxf>
     <dxf>
-      <protection locked="0" hidden="0"/>
+      <protection hidden="0" locked="0"/>
     </dxf>
     <dxf>
-      <protection locked="0" hidden="0"/>
+      <protection hidden="0" locked="0"/>
     </dxf>
     <dxf>
-      <protection locked="0" hidden="0"/>
+      <protection hidden="0" locked="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:B5" totalsRowShown="0">
-  <autoFilter ref="A1:B5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Table1" headerRowCount="1" id="1" name="Table1" ref="A1:B5" totalsRowShown="0">
+  <autoFilter ref="A1:B5"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ITEM"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="VALUE"/>
+    <tableColumn id="1" name="ITEM"/>
+    <tableColumn id="2" name="VALUE"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:C3" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="3" displayName="Table2" headerRowCount="1" headerRowDxfId="4" id="2" name="Table2" ref="A1:C3" totalsRowShown="0">
+  <autoFilter ref="A1:C3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="IP" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="MAC" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="OS" dataDxfId="0"/>
+    <tableColumn dataDxfId="2" id="1" name="IP"/>
+    <tableColumn dataDxfId="1" id="2" name="MAC"/>
+    <tableColumn dataDxfId="0" id="3" name="OS"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Table3" headerRowCount="1" id="3" name="Table3" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="SCRIPT"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="RUN"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="SUITE"/>
+    <tableColumn id="1" name="SCRIPT"/>
+    <tableColumn id="2" name="RUN"/>
+    <tableColumn id="3" name="SUITE"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
@@ -507,238 +399,330 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="6" width="9.33203125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="6" width="30.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>29</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ITEM</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>VALUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>task_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>jie.liu1@hp.com;carl.chen@hp.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>needbuild</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>repository</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>https://github.azc.ext.hp.com/HPI-ThinClientQA/bamboo_test1.git</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="B4" type="list">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="6" width="10.6640625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="6" width="10.5546875"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="6" width="7.77734375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>14</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>IP</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>MAC</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>OS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>15.83.250.1</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>13354k31sa</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>WES7P</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>15.83.250.2</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>13354k31sb</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>WES7P</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="C2:C3" type="list">
       <formula1>"WES7E,WES7P,WES10"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967295" orientation="portrait" verticalDpi="4294967295"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="6" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="6" width="9.109375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="6" width="9.21875"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="6" width="13.109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>SCRIPT</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>RUN</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SUITE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>script1</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Doraemon</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>script2</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Doraemon</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>script4</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Doraemon</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>script3</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>WES_Precheck</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>script5</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>WES_Precheck</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>script6</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>WES_Precheck</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B7" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="B2:B7" type="list">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Configuration/test_plan/TEST_PLAN_2.xlsx
+++ b/Configuration/test_plan/TEST_PLAN_2.xlsx
@@ -1,44 +1,159 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PycharmProjects\Automation-Framework\Configuration\test_plan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBF4142-B6E7-467F-8301-AFE1CA647F92}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12648" windowWidth="22260" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="config" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="uut" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="scripts" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="config" sheetId="1" r:id="rId1"/>
+    <sheet name="uut" sheetId="2" r:id="rId2"/>
+    <sheet name="scripts" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+  <si>
+    <t>ITEM</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>task_2</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>jie.liu1@hp.com;carl.chen@hp.com</t>
+  </si>
+  <si>
+    <t>needbuild</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>repository</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>SCRIPT</t>
+  </si>
+  <si>
+    <t>RUN</t>
+  </si>
+  <si>
+    <t>SUITE</t>
+  </si>
+  <si>
+    <t>script1</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Doraemon</t>
+  </si>
+  <si>
+    <t>script2</t>
+  </si>
+  <si>
+    <t>script4</t>
+  </si>
+  <si>
+    <t>script3</t>
+  </si>
+  <si>
+    <t>WES_Precheck</t>
+  </si>
+  <si>
+    <t>script5</t>
+  </si>
+  <si>
+    <t>script6</t>
+  </si>
+  <si>
+    <t>15.83.248.205</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>48:0F:CF:BB:7C:65</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WES7E</t>
+  </si>
+  <si>
+    <t>15.83.248.208</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WES10</t>
+  </si>
+  <si>
+    <t>7C:D3:0A:05:01:97</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.azc.ext.hp.com/HPI-ThinClientQA/bamboo_test1.git</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,86 +169,92 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Table1" headerRowCount="1" id="1" name="Table1" ref="A1:B5" totalsRowShown="0">
-  <autoFilter ref="A1:B5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:B5" totalsRowShown="0">
+  <autoFilter ref="A1:B5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="ITEM"/>
-    <tableColumn id="2" name="VALUE"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ITEM"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="VALUE"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="3" displayName="Table2" headerRowCount="1" headerRowDxfId="4" id="2" name="Table2" ref="A1:C3" totalsRowShown="0">
-  <autoFilter ref="A1:C3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:C3" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn dataDxfId="2" id="1" name="IP"/>
-    <tableColumn dataDxfId="1" id="2" name="MAC"/>
-    <tableColumn dataDxfId="0" id="3" name="OS"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="IP" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="MAC" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="OS" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Table3" headerRowCount="1" id="3" name="Table3" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="SCRIPT"/>
-    <tableColumn id="2" name="RUN"/>
-    <tableColumn id="3" name="SUITE"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="SCRIPT"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="RUN"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="SUITE"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -399,330 +520,243 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="6" width="9.33203125"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="6" width="30.6640625"/>
+    <col min="1" max="1" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.88671875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ITEM</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>VALUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>task_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>jie.liu1@hp.com;carl.chen@hp.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>needbuild</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>repository</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>https://github.azc.ext.hp.com/HPI-ThinClientQA/bamboo_test1.git</t>
-        </is>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="B4" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{21FA1023-23FB-4894-AE9B-CD5C59D18C02}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="6" width="10.6640625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="6" width="10.5546875"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="6" width="7.77734375"/>
+    <col min="1" max="1" width="33.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="42.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="66.109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="66.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>IP</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>MAC</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>OS</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>15.83.250.1</t>
-        </is>
-      </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>13354k31sa</t>
-        </is>
-      </c>
-      <c r="C2" s="5" t="inlineStr">
-        <is>
-          <t>WES7P</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>15.83.250.2</t>
-        </is>
-      </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>13354k31sb</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>WES7P</t>
-        </is>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="C2:C3" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"WES7E,WES7P,WES10"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967295" orientation="portrait" verticalDpi="4294967295"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="6" width="9.109375"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="6" width="9.21875"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="6" width="13.109375"/>
+    <col min="1" max="1" width="9.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>SCRIPT</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>RUN</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>SUITE</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>script1</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Doraemon</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>script2</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Doraemon</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>script4</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Doraemon</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>script3</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>WES_Precheck</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>script5</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>WES_Precheck</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>script6</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>WES_Precheck</t>
-        </is>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="B2:B7" type="list">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B7" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>